--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -1,25 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\Team Noobcoder\Prototyping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D8154-3AA3-4386-A835-12EEFD4033EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +123,303 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +430,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8049470-5F36-4605-9951-F142EED26D8A}" name="Table3" displayName="Table3" ref="C3:T23" headerRowDxfId="18" dataDxfId="19">
+  <autoFilter ref="C3:T23" xr:uid="{B6739574-731A-462B-9DB6-BD771A9612BB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{44880A8D-B915-43B6-8CE3-91BE253A3E98}" name="Column1" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7FD2B959-9CB3-404E-A4BF-4B1169CFECFF}" name="Column2" dataDxfId="34" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F84659BB-04F5-4AC3-AD6B-B529FA90E916}" name="Column3" dataDxfId="33" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0E8D24BD-5CFB-4773-A643-2D3AE95DEDFA}" name="Column4" dataDxfId="32" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FD9E558E-0017-48A5-B5EC-5B3C54239B4F}" name="Column5" dataDxfId="31" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{4F7B1B92-99BA-45F9-97E1-329C2B4D7447}" name="Column6" dataDxfId="30" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2A14BF04-2617-490C-871B-433484D4F39F}" name="Column7" dataDxfId="29" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{A6DA931D-BD83-45B4-8C28-5E3D7186318B}" name="Column8" dataDxfId="28" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{7B3F6AD0-2154-4BDF-BB43-D9CFC25EB908}" name="Column9" dataDxfId="27" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{57931E3F-D675-4C74-AB07-596C88A70A82}" name="Column10" dataDxfId="26" totalsRowDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{806EE126-3BC4-483F-B337-CEC0B33F674E}" name="Column11" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{0586F61E-322F-4149-8F8C-BBCE0A633DAD}" name="Column12" dataDxfId="24" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{B93B4FB4-2DAC-48AE-A228-2B42C9C9CB90}" name="Column13" dataDxfId="23" totalsRowDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{0FE9D500-678D-4F2D-B01F-1AEA2C06116B}" name="Column14" dataDxfId="22" totalsRowDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{0A351855-00C4-453D-BF0A-7B409F0131B2}" name="Column15" dataDxfId="21" totalsRowDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{58FE3FE2-BE69-4696-A015-B1004C931839}" name="Column16" dataDxfId="20" totalsRowDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{9A555E12-5408-48A7-BC46-1D82A65E82CF}" name="Column17" totalsRowFunction="count"/>
+    <tableColumn id="18" xr3:uid="{8D0AEE2B-2EBC-4393-934D-109948E80D48}" name="Column18" dataDxfId="1" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +740,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="19" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\Team Noobcoder\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D8154-3AA3-4386-A835-12EEFD4033EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671051E6-C189-46F2-83DB-C32545E26600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,67 +34,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
-    <t>Column15</t>
-  </si>
-  <si>
-    <t>Column16</t>
-  </si>
-  <si>
-    <t>Column17</t>
-  </si>
-  <si>
-    <t>Column18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Muhammad Farid Izwan</t>
+  </si>
+  <si>
+    <t>Muhammad Iqbal</t>
+  </si>
+  <si>
+    <t>Muhammad Amjad</t>
+  </si>
+  <si>
+    <t>Amit Chakma</t>
+  </si>
+  <si>
+    <t>Abdul Azeez</t>
+  </si>
+  <si>
+    <t>Amirul Hakimi</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Summary/Feedback</t>
+  </si>
+  <si>
+    <t>Task to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set-up Github repository </t>
+  </si>
+  <si>
+    <t>2) Model requirement diagram</t>
+  </si>
+  <si>
+    <t>1) Model requirement diagram</t>
+  </si>
+  <si>
+    <t>2) Setting up and edit documents</t>
+  </si>
+  <si>
+    <t>Attended</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +93,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,306 +160,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -430,52 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8049470-5F36-4605-9951-F142EED26D8A}" name="Table3" displayName="Table3" ref="C3:T23" headerRowDxfId="18" dataDxfId="19">
-  <autoFilter ref="C3:T23" xr:uid="{B6739574-731A-462B-9DB6-BD771A9612BB}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{44880A8D-B915-43B6-8CE3-91BE253A3E98}" name="Column1" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7FD2B959-9CB3-404E-A4BF-4B1169CFECFF}" name="Column2" dataDxfId="34" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F84659BB-04F5-4AC3-AD6B-B529FA90E916}" name="Column3" dataDxfId="33" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0E8D24BD-5CFB-4773-A643-2D3AE95DEDFA}" name="Column4" dataDxfId="32" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FD9E558E-0017-48A5-B5EC-5B3C54239B4F}" name="Column5" dataDxfId="31" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4F7B1B92-99BA-45F9-97E1-329C2B4D7447}" name="Column6" dataDxfId="30" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2A14BF04-2617-490C-871B-433484D4F39F}" name="Column7" dataDxfId="29" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{A6DA931D-BD83-45B4-8C28-5E3D7186318B}" name="Column8" dataDxfId="28" totalsRowDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{7B3F6AD0-2154-4BDF-BB43-D9CFC25EB908}" name="Column9" dataDxfId="27" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{57931E3F-D675-4C74-AB07-596C88A70A82}" name="Column10" dataDxfId="26" totalsRowDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{806EE126-3BC4-483F-B337-CEC0B33F674E}" name="Column11" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{0586F61E-322F-4149-8F8C-BBCE0A633DAD}" name="Column12" dataDxfId="24" totalsRowDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{B93B4FB4-2DAC-48AE-A228-2B42C9C9CB90}" name="Column13" dataDxfId="23" totalsRowDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{0FE9D500-678D-4F2D-B01F-1AEA2C06116B}" name="Column14" dataDxfId="22" totalsRowDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{0A351855-00C4-453D-BF0A-7B409F0131B2}" name="Column15" dataDxfId="21" totalsRowDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{58FE3FE2-BE69-4696-A015-B1004C931839}" name="Column16" dataDxfId="20" totalsRowDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{9A555E12-5408-48A7-BC46-1D82A65E82CF}" name="Column17" totalsRowFunction="count"/>
-    <tableColumn id="18" xr3:uid="{8D0AEE2B-2EBC-4393-934D-109948E80D48}" name="Column18" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,80 +471,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:T23"/>
+  <dimension ref="C2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="19" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -826,18 +557,10 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -848,8 +571,8 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -867,8 +590,8 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -886,8 +609,8 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -905,8 +628,8 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -924,8 +647,8 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -943,15 +666,29 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -962,7 +699,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -981,7 +718,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1000,7 +737,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1019,7 +756,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1038,7 +775,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1057,7 +794,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1076,7 +813,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1095,7 +832,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1114,10 +851,10 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1136,7 +873,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1155,7 +892,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1176,8 +913,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671051E6-C189-46F2-83DB-C32545E26600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED3033-D0B8-4208-A20A-8EFF0ADF8B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Week</t>
   </si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>Attended</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +124,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +160,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -160,14 +175,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -187,9 +203,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -474,7 +494,7 @@
   <dimension ref="C2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +508,8 @@
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="19" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
@@ -524,10 +545,12 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>

--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\Team Noobcoder\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED3033-D0B8-4208-A20A-8EFF0ADF8B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE1DAC-8F51-49AC-B39D-201383D2D854}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,21 +39,9 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Muhammad Farid Izwan</t>
-  </si>
-  <si>
-    <t>Muhammad Iqbal</t>
-  </si>
-  <si>
-    <t>Muhammad Amjad</t>
-  </si>
-  <si>
     <t>Amit Chakma</t>
   </si>
   <si>
-    <t>Abdul Azeez</t>
-  </si>
-  <si>
     <t>Amirul Hakimi</t>
   </si>
   <si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Abdul-Azeez Olanlokun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Farid Shabri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iqbal Fauzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amjad Malik</t>
   </si>
 </sst>
 </file>
@@ -493,63 +493,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -558,16 +558,16 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -582,7 +582,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -594,7 +594,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -613,7 +613,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -632,7 +632,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -651,7 +651,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -670,7 +670,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -689,28 +689,28 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -722,7 +722,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -741,7 +741,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -760,7 +760,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -779,7 +779,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -798,7 +798,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -817,7 +817,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -836,7 +836,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -855,7 +855,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -874,10 +874,10 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -896,7 +896,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -915,7 +915,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>

--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\Team Noobcoder\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE1DAC-8F51-49AC-B39D-201383D2D854}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9E14C-4DCD-48D8-B20E-41113B328BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,25 +494,25 @@
   <dimension ref="C2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="19" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -594,7 +594,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -613,7 +613,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -632,7 +632,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -651,7 +651,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -670,7 +670,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -689,7 +689,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -722,7 +722,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -741,7 +741,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -760,7 +760,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -779,7 +779,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -798,7 +798,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -817,7 +817,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -836,7 +836,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -855,7 +855,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -874,10 +874,10 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -896,7 +896,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -915,7 +915,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>

--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prototyping\Prototyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9E14C-4DCD-48D8-B20E-41113B328BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9AADA-4CA3-45C8-981C-9E1D29A1DE2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Week</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Amjad Malik</t>
+  </si>
+  <si>
+    <t>edit Use Case</t>
+  </si>
+  <si>
+    <t>specify entities and relation</t>
+  </si>
+  <si>
+    <t>refine use case- sequence and activity diagram</t>
+  </si>
+  <si>
+    <t>constrain diagram- reduce all contexts, like scenario carrying person, putsize of human</t>
+  </si>
+  <si>
+    <t>specify stakeholder- humans that be rescued, operation</t>
+  </si>
+  <si>
+    <t>3) Use Case Diagram</t>
   </si>
 </sst>
 </file>
@@ -493,26 +511,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="70.88671875" customWidth="1"/>
+    <col min="13" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -532,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -558,7 +576,7 @@
       <c r="Q3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
         <v>1</v>
       </c>
@@ -574,7 +592,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -582,10 +602,15 @@
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -594,7 +619,7 @@
       <c r="R5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -604,7 +629,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -613,7 +640,7 @@
       <c r="R6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -623,7 +650,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -632,7 +661,7 @@
       <c r="R7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -642,7 +671,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -651,7 +682,7 @@
       <c r="R8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -670,7 +701,7 @@
       <c r="R9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -689,7 +720,7 @@
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -722,7 +753,7 @@
       <c r="R11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -741,7 +772,7 @@
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -760,7 +791,7 @@
       <c r="R13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -779,7 +810,7 @@
       <c r="R14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -798,7 +829,7 @@
       <c r="R15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -817,7 +848,7 @@
       <c r="R16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -836,7 +867,7 @@
       <c r="R17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -855,7 +886,7 @@
       <c r="R18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -874,10 +905,10 @@
       <c r="R19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -896,7 +927,7 @@
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -915,7 +946,7 @@
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>

--- a/Prototyping/Protocol Team Noobcoder.xlsx
+++ b/Prototyping/Protocol Team Noobcoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HSHL\SOFTWARE FOR ELE\GitHub\ResQ\Prototyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9AADA-4CA3-45C8-981C-9E1D29A1DE2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB741C78-9B29-4F60-92A2-059BB94A1B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="C2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
